--- a/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Flexure_Calcualtion_T_Giredr_Data.xlsx
+++ b/AE Sakib/Narail/2021_22/Bridges/Kalishankar Pur Khal Footoverbridge/Girder Reiforcement Calcualtion/Flexure_Calcualtion_T_Giredr_Data.xlsx
@@ -7,16 +7,165 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Flexure_Calcualtion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>db_main</t>
+  </si>
+  <si>
+    <t>db_shear</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>b_total</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Muv</t>
+  </si>
+  <si>
+    <t>Ab_main</t>
+  </si>
+  <si>
+    <t>Ab_stirrup</t>
+  </si>
+  <si>
+    <t>C/C dist of Rebar</t>
+  </si>
+  <si>
+    <t>No of Bar in Single_layer</t>
+  </si>
+  <si>
+    <t>Area of Rebar in Single Layer</t>
+  </si>
+  <si>
+    <t>C/C dist of Rebar Layer</t>
+  </si>
+  <si>
+    <t>Cracking Moment</t>
+  </si>
+  <si>
+    <t>Minimum Design Moment</t>
+  </si>
+  <si>
+    <t>As_Calcualted</t>
+  </si>
+  <si>
+    <t>As_min</t>
+  </si>
+  <si>
+    <t>Calcualted&gt;Minimum</t>
+  </si>
+  <si>
+    <t>As_provided</t>
+  </si>
+  <si>
+    <t>Total_Bar_No_Rebar</t>
+  </si>
+  <si>
+    <t>No_of_Layer</t>
+  </si>
+  <si>
+    <t>d_s</t>
+  </si>
+  <si>
+    <t>Neutral Axis Depth,c</t>
+  </si>
+  <si>
+    <t>Stress Block Depth,a</t>
+  </si>
+  <si>
+    <t>bv</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>Vn_max_allowable</t>
+  </si>
+  <si>
+    <t>Vr_max_allowable</t>
+  </si>
+  <si>
+    <t>Vr&gt;Vu</t>
+  </si>
+  <si>
+    <t>Vn_design</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>0,5*Phi*Vc</t>
+  </si>
+  <si>
+    <t>Shear Reinforement Required</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>C/C dist of Stirrup</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +189,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +507,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3482</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>226</v>
+      </c>
+      <c r="P2">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3482</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>226</v>
+      </c>
+      <c r="P3">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3482</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>226</v>
+      </c>
+      <c r="P4">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3482</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0.9</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>226</v>
+      </c>
+      <c r="P5">
+        <v>3482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AS5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:45">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3482</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>226</v>
+      </c>
+      <c r="P2">
+        <v>3482</v>
+      </c>
+      <c r="Q2">
+        <v>0.31</v>
+      </c>
+      <c r="R2">
+        <v>0.12</v>
+      </c>
+      <c r="S2">
+        <v>3.145</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>1.55</v>
+      </c>
+      <c r="V2">
+        <v>1.63</v>
+      </c>
+      <c r="W2">
+        <v>625.4116335863008</v>
+      </c>
+      <c r="X2">
+        <v>750.4939603035609</v>
+      </c>
+      <c r="Y2">
+        <v>24.8</v>
+      </c>
+      <c r="Z2">
+        <v>4.65</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2">
+        <v>24.8</v>
+      </c>
+      <c r="AC2">
+        <v>80</v>
+      </c>
+      <c r="AD2">
+        <v>16</v>
+      </c>
+      <c r="AE2">
+        <v>35.07</v>
+      </c>
+      <c r="AF2">
+        <v>6.77</v>
+      </c>
+      <c r="AG2">
+        <v>5.76</v>
+      </c>
+      <c r="AH2">
+        <v>18</v>
+      </c>
+      <c r="AI2">
+        <v>32.19</v>
+      </c>
+      <c r="AJ2">
+        <v>579.42</v>
+      </c>
+      <c r="AK2">
+        <v>521.478</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2">
+        <v>251.1111111111111</v>
+      </c>
+      <c r="AN2">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>32.958</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ2">
+        <v>177.8711111111111</v>
+      </c>
+      <c r="AR2">
+        <v>0.24</v>
+      </c>
+      <c r="AS2">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3482</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>226</v>
+      </c>
+      <c r="P3">
+        <v>3482</v>
+      </c>
+      <c r="Q3">
+        <v>0.49</v>
+      </c>
+      <c r="R3">
+        <v>0.12</v>
+      </c>
+      <c r="S3">
+        <v>3.105</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>2.45</v>
+      </c>
+      <c r="V3">
+        <v>1.79</v>
+      </c>
+      <c r="W3">
+        <v>625.4116335863008</v>
+      </c>
+      <c r="X3">
+        <v>750.4939603035609</v>
+      </c>
+      <c r="Y3">
+        <v>22.05</v>
+      </c>
+      <c r="Z3">
+        <v>4.9</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3">
+        <v>22.05</v>
+      </c>
+      <c r="AC3">
+        <v>45</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>40.05</v>
+      </c>
+      <c r="AF3">
+        <v>6.02</v>
+      </c>
+      <c r="AG3">
+        <v>5.12</v>
+      </c>
+      <c r="AH3">
+        <v>18</v>
+      </c>
+      <c r="AI3">
+        <v>37.48999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>674.8199999999999</v>
+      </c>
+      <c r="AK3">
+        <v>607.338</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3">
+        <v>251.1111111111111</v>
+      </c>
+      <c r="AN3">
+        <v>85.3</v>
+      </c>
+      <c r="AO3">
+        <v>38.385</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ3">
+        <v>165.8111111111111</v>
+      </c>
+      <c r="AR3">
+        <v>0.24</v>
+      </c>
+      <c r="AS3">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3482</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>226</v>
+      </c>
+      <c r="P4">
+        <v>3482</v>
+      </c>
+      <c r="Q4">
+        <v>0.76</v>
+      </c>
+      <c r="R4">
+        <v>0.12</v>
+      </c>
+      <c r="S4">
+        <v>4.073333333333333</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>3.04</v>
+      </c>
+      <c r="V4">
+        <v>1.98</v>
+      </c>
+      <c r="W4">
+        <v>625.4116335863008</v>
+      </c>
+      <c r="X4">
+        <v>750.4939603035609</v>
+      </c>
+      <c r="Y4">
+        <v>21.28</v>
+      </c>
+      <c r="Z4">
+        <v>6.08</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4">
+        <v>21.28</v>
+      </c>
+      <c r="AC4">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>41.17</v>
+      </c>
+      <c r="AF4">
+        <v>5.81</v>
+      </c>
+      <c r="AG4">
+        <v>4.94</v>
+      </c>
+      <c r="AH4">
+        <v>18</v>
+      </c>
+      <c r="AI4">
+        <v>38.7</v>
+      </c>
+      <c r="AJ4">
+        <v>696.6</v>
+      </c>
+      <c r="AK4">
+        <v>626.9400000000001</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM4">
+        <v>251.1111111111111</v>
+      </c>
+      <c r="AN4">
+        <v>88.05</v>
+      </c>
+      <c r="AO4">
+        <v>39.6225</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ4">
+        <v>163.0611111111111</v>
+      </c>
+      <c r="AR4">
+        <v>0.24</v>
+      </c>
+      <c r="AS4">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3482</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0.9</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>226</v>
+      </c>
+      <c r="P5">
+        <v>3482</v>
+      </c>
+      <c r="Q5">
+        <v>1.25</v>
+      </c>
+      <c r="R5">
+        <v>0.12</v>
+      </c>
+      <c r="S5">
+        <v>3.986666666666667</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>2.52</v>
+      </c>
+      <c r="W5">
+        <v>625.4116335863008</v>
+      </c>
+      <c r="X5">
+        <v>750.4939603035609</v>
+      </c>
+      <c r="Y5">
+        <v>20</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>16</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>43.2</v>
+      </c>
+      <c r="AF5">
+        <v>5.46</v>
+      </c>
+      <c r="AG5">
+        <v>4.64</v>
+      </c>
+      <c r="AH5">
+        <v>18</v>
+      </c>
+      <c r="AI5">
+        <v>40.88</v>
+      </c>
+      <c r="AJ5">
+        <v>735.84</v>
+      </c>
+      <c r="AK5">
+        <v>662.2560000000001</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM5">
+        <v>251.1111111111111</v>
+      </c>
+      <c r="AN5">
+        <v>93.01000000000001</v>
+      </c>
+      <c r="AO5">
+        <v>41.8545</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5">
+        <v>158.1011111111111</v>
+      </c>
+      <c r="AR5">
+        <v>0.24</v>
+      </c>
+      <c r="AS5">
+        <v>3.72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>